--- a/excel/tool.xlsx
+++ b/excel/tool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,26 @@
   </si>
   <si>
     <t>용기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알코올 램프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가열기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측정기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -401,6 +421,23 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
